--- a/pypi/prokabaddidata/DATA/DATA__tableau_data/defender skills_d/s8_csv/Jaipur Pink Panthers s8 conv.xlsx
+++ b/pypi/prokabaddidata/DATA/DATA__tableau_data/defender skills_d/s8_csv/Jaipur Pink Panthers s8 conv.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url=""/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annimukh/Documents/acode/ProKabaddi_API/pypi/prokabaddidata/0_DATA/DATA__tableau_data/defender skills_d/s8_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D8DA20-6EE9-274E-A9A6-CD9C0FA083A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28260" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="28260" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,30 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
-  <si>
-    <t xml:space="preserve">Defender Success rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defender Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Tackles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful Tackles</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Color % Successful Tac..</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandeep Dhull</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+  <si>
+    <t>Defender Success rate</t>
+  </si>
+  <si>
+    <t>Defender Name</t>
+  </si>
+  <si>
+    <t>Total Tackles</t>
+  </si>
+  <si>
+    <t>Successful Tackles</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Color % Successful Tac..</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sandeep Dhull</t>
   </si>
   <si>
     <t>44%</t>
@@ -59,7 +60,7 @@
     <t>1.000</t>
   </si>
   <si>
-    <t xml:space="preserve">Vishal Lather</t>
+    <t>Vishal Lather</t>
   </si>
   <si>
     <t>40%</t>
@@ -71,7 +72,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Shaul Kumar</t>
+    <t>Shaul Kumar</t>
   </si>
   <si>
     <t>46%</t>
@@ -83,7 +84,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Deepak Rajendar Singh</t>
+    <t>Deepak Rajendar Singh</t>
   </si>
   <si>
     <t>27%</t>
@@ -95,7 +96,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Nitin Rawal</t>
+    <t>Nitin Rawal</t>
   </si>
   <si>
     <t>44%</t>
@@ -107,7 +108,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Amit Kharb</t>
+    <t>Amit Kharb</t>
   </si>
   <si>
     <t>31%</t>
@@ -119,7 +120,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Brijendra Singh Chaudha..</t>
+    <t>Brijendra Singh Chaudha..</t>
   </si>
   <si>
     <t>47%</t>
@@ -143,7 +144,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Deepak Hooda</t>
+    <t>Deepak Hooda</t>
   </si>
   <si>
     <t>21%</t>
@@ -155,7 +156,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Pavan TR</t>
+    <t>Pavan TR</t>
   </si>
   <si>
     <t>31%</t>
@@ -167,7 +168,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Dharmaraj Cheralathan</t>
+    <t>Dharmaraj Cheralathan</t>
   </si>
   <si>
     <t>18%</t>
@@ -179,7 +180,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Amit Nagar</t>
+    <t>Amit Nagar</t>
   </si>
   <si>
     <t>38%</t>
@@ -191,7 +192,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Amit Hooda</t>
+    <t>Amit Hooda</t>
   </si>
   <si>
     <t>40%</t>
@@ -203,7 +204,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Arjun Deshwal</t>
+    <t>Arjun Deshwal</t>
   </si>
   <si>
     <t>25%</t>
@@ -215,7 +216,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Sachin Narwal</t>
+    <t>Sachin Narwal</t>
   </si>
   <si>
     <t>0%</t>
@@ -227,7 +228,7 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Amin Nosrati</t>
+    <t>Amin Nosrati</t>
   </si>
   <si>
     <t>50%</t>
@@ -239,127 +240,91 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Attacking Skill</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Unsuccessful Tackles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Running Hand Touch</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Hand Touch</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Defender self out (lobby s..</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Toe Touch</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Side Kick</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Running Kick</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse Kick</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Leg Thrust</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Counter Action Skill</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Unsuccessful Tackles</t>
+    <t>Attacking Skill</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Unsuccessful Tackles</t>
+  </si>
+  <si>
+    <t>Running Hand Touch</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Hand Touch</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Defender self out (lobby s..</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Toe Touch</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Side Kick</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Running Kick</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Reverse Kick</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Leg Thrust</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Counter Action Skill</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Unsuccessful Tackles</t>
   </si>
   <si>
     <t>Release</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Struggle</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Out Turn</t>
-  </si>
-  <si>
-    <t/>
+    <t>Out Turn</t>
   </si>
   <si>
     <t>Jump</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Gap</t>
-  </si>
-  <si>
-    <t/>
+    <t>Create Gap</t>
   </si>
   <si>
     <t>Dubki</t>
@@ -368,19 +333,19 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">In Turn</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Defensive Skill</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful Tackles</t>
+    <t>In Turn</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Defensive Skill</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Successful Tackles</t>
   </si>
   <si>
     <t/>
@@ -392,31 +357,19 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Block</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Ankle Hold</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Thigh Hold</t>
-  </si>
-  <si>
-    <t/>
+    <t>Ankle Hold</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Thigh Hold</t>
   </si>
   <si>
     <t/>
@@ -428,22 +381,13 @@
     <t/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Body Hold</t>
-  </si>
-  <si>
-    <t/>
+    <t>Body Hold</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
     <t>Chain_def</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t/>
@@ -470,35 +414,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <color rgb="FF333333"/>
       <b/>
       <sz val="14"/>
+      <color rgb="FF333333"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
       <color rgb="FF333333"/>
-      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
       <color rgb="FF666666"/>
-      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -508,8 +452,8 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
       <color rgb="FF333333"/>
-      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -519,8 +463,8 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
       <color rgb="FF666666"/>
-      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
@@ -562,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -703,17 +647,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFCBCBCB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCBCBCB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -775,146 +708,143 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="46">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1196,718 +1126,667 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26"/>
-    <col min="2" max="2" width="26"/>
+    <col min="1" max="2" width="26"/>
     <col min="3" max="3" width="24"/>
     <col min="4" max="4" width="23"/>
     <col min="5" max="5" width="15"/>
     <col min="6" max="6" width="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25" ht="16" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25" ht="13" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>118</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>52</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="6">
         <v>100</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>40</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>94</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>43</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>55</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>15</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="6">
         <v>27</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>12</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="6">
         <v>26</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>8</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>17</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>8</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>16</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>14</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>13</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="6">
         <v>11</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>8</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>5</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>4</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25" ht="17" customHeight="1">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="6">
         <v>2</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25" ht="14" customHeight="1">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20">
+        <v>56</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="23" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="24">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A21" s="25" t="s">
+      <c r="B21" s="23">
+        <v>36</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="26" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="B22" s="24">
+        <v>10</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="28">
+    </row>
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="24">
+        <v>9</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="24">
+        <v>9</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="25">
+        <v>5</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="25">
+        <v>5</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="28">
+        <v>2</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="20">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="31">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="32">
+        <v>2</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="34">
+        <v>1</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="20">
+        <v>50</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="38">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A22" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A23" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="29">
+      <c r="D38" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="38">
+        <v>36</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="38">
+        <v>30</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="25">
+        <v>19</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="25">
+        <v>19</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="25">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A24" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A25" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="30">
-        <v>5</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A26" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="30">
-        <v>5</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A27" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="33">
+      <c r="D43" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="39">
         <v>2</v>
       </c>
-      <c r="C27" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A28" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A29" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="24">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A30" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="36">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A31" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A32" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A33" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A34" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="37">
-        <v>2</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A35" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="39">
-        <v>1</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A36" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A37" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A38" s="25" t="s">
+      <c r="C44" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="D44" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="43">
-        <v>36</v>
-      </c>
-      <c r="D38" s="31" t="s">
+    </row>
+    <row r="45" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="33" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A39" s="25" t="s">
+      <c r="B45" s="40">
+        <v>0</v>
+      </c>
+      <c r="C45" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="D45" s="35" t="s">
         <v>127</v>
-      </c>
-      <c r="C39" s="43">
-        <v>36</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A40" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="43">
-        <v>30</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A41" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="30">
-        <v>19</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A42" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="30">
-        <v>19</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A43" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="30">
-        <v>9</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A44" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" s="44">
-        <v>2</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25" ht="12" customHeight="1">
-      <c r="A45" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="45">
-        <v>0</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1916,5 +1795,6 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>